--- a/300693/300693_2019-01_level5.xlsx
+++ b/300693/300693_2019-01_level5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -107,11 +107,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,8 +119,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,14 +173,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,9 +475,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="8" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -495,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C2">
         <v>0.13</v>
@@ -510,7 +530,7 @@
         <v>1249</v>
       </c>
       <c r="G2">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H2">
         <v>0.47</v>
@@ -536,7 +556,7 @@
         <v>1394</v>
       </c>
       <c r="G3">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H3">
         <v>0.32</v>
@@ -602,13 +622,13 @@
         <v>0.27</v>
       </c>
       <c r="C6">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6">
         <v>2628</v>
       </c>
       <c r="E6">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F6">
         <v>2258</v>
@@ -654,7 +674,7 @@
         <v>0.23</v>
       </c>
       <c r="C8">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D8">
         <v>2481</v>
@@ -764,7 +784,7 @@
         <v>2842</v>
       </c>
       <c r="E12">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F12">
         <v>1761</v>
@@ -776,29 +796,29 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>0.28</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.19</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>1411</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>2.44</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>692</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.33</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>0.15</v>
       </c>
     </row>
@@ -937,10 +957,10 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C19">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D19">
         <v>4504</v>
@@ -992,13 +1012,13 @@
         <v>0.25</v>
       </c>
       <c r="C21">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D21">
         <v>3479</v>
       </c>
       <c r="E21">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F21">
         <v>3402</v>
@@ -1030,13 +1050,15 @@
         <v>2704</v>
       </c>
       <c r="G22">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H22">
         <v>0.37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>